--- a/_Lang_Korean/Lang/KR/Game/Stat.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Stat.xlsx
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.18</t>
+    <t xml:space="preserve">EA 23.23 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>
@@ -1560,7 +1560,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-You are getting hungry.|You feel hungry.|ow what shall you eat?
+You are getting hungry.|You feel hungry.|Now what shall you eat?
 Your hunger makes you dizzy.|You have to eat something NOW.
 You are starving!|You are almost dead from hunger.</t>
   </si>

--- a/_Lang_Korean/Lang/KR/Game/Stat.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Stat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\Elin_KR\_Lang_Korean\Lang\KR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4278912D-2A90-4E6F-A1FF-CD01A239972A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A608880D-26C7-4990-9D66-2329CBE68427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2150,21 +2150,12 @@
     <t>이동할 수 없는 상태.</t>
   </si>
   <si>
-    <t>혼란에 빠져 이동이나 영창이 방해받는 상태.</t>
-  </si>
-  <si>
-    <t>아무 것도 볼 수 없는 상태.</t>
-  </si>
-  <si>
     <t>미쳐버린 상태.</t>
   </si>
   <si>
     <t>출혈로 인해, 행동을 할 때마다 체력이 줄어드는 상태.</t>
   </si>
   <si>
-    <t>몽롱해져, 이동이나 영창이 방해받는 상태.</t>
-  </si>
-  <si>
     <t>엉뚱한 것이 보이는 상태.</t>
   </si>
   <si>
@@ -2232,9 +2223,6 @@
   </si>
   <si>
     <t>중력을 부여하는 저주.</t>
-  </si>
-  <si>
-    <t>영창을 방해하는 저주.</t>
   </si>
   <si>
     <t>방어를 반감하는 저주.</t>
@@ -2829,6 +2817,22 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>아무 것도 볼 수 없는 상태.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼란에 빠져 이동이나 주문 시전이 방해받는 상태.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몽롱해져, 이동이나 주문 시전이 방해받는 상태.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 시전을 방해하는 저주.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2898,12 +2902,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3224,8 +3228,8 @@
   <dimension ref="A1:T73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
+      <pane ySplit="2" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3321,7 +3325,7 @@
         <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="J3" t="s">
         <v>25</v>
@@ -3330,7 +3334,7 @@
         <v>26</v>
       </c>
       <c r="L3" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="M3" t="s">
         <v>27</v>
@@ -3339,7 +3343,7 @@
         <v>28</v>
       </c>
       <c r="R3" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="S3" t="s">
         <v>29</v>
@@ -3383,7 +3387,7 @@
         <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="M4" t="s">
         <v>36</v>
@@ -3392,7 +3396,7 @@
         <v>37</v>
       </c>
       <c r="R4" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="S4" t="s">
         <v>38</v>
@@ -3427,7 +3431,7 @@
         <v>44</v>
       </c>
       <c r="I5" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="J5" t="s">
         <v>45</v>
@@ -3436,7 +3440,7 @@
         <v>46</v>
       </c>
       <c r="L5" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="M5" t="s">
         <v>47</v>
@@ -3445,7 +3449,7 @@
         <v>48</v>
       </c>
       <c r="O5" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="P5" t="s">
         <v>49</v>
@@ -3454,7 +3458,7 @@
         <v>50</v>
       </c>
       <c r="R5" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="S5" t="s">
         <v>51</v>
@@ -3489,7 +3493,7 @@
         <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="J6" t="s">
         <v>58</v>
@@ -3498,7 +3502,7 @@
         <v>59</v>
       </c>
       <c r="L6" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="M6" t="s">
         <v>60</v>
@@ -3507,7 +3511,7 @@
         <v>61</v>
       </c>
       <c r="O6" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="P6" t="s">
         <v>62</v>
@@ -3551,7 +3555,7 @@
         <v>66</v>
       </c>
       <c r="L7" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="M7" t="s">
         <v>69</v>
@@ -3560,7 +3564,7 @@
         <v>70</v>
       </c>
       <c r="R7" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="S7" t="s">
         <v>71</v>
@@ -3604,7 +3608,7 @@
         <v>75</v>
       </c>
       <c r="L8" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="M8" t="s">
         <v>78</v>
@@ -3613,7 +3617,7 @@
         <v>79</v>
       </c>
       <c r="R8" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="S8" t="s">
         <v>80</v>
@@ -3657,7 +3661,7 @@
         <v>84</v>
       </c>
       <c r="L9" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="M9" t="s">
         <v>88</v>
@@ -3666,7 +3670,7 @@
         <v>89</v>
       </c>
       <c r="R9" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="S9" t="s">
         <v>90</v>
@@ -3710,7 +3714,7 @@
         <v>94</v>
       </c>
       <c r="L10" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="M10" t="s">
         <v>98</v>
@@ -3719,7 +3723,7 @@
         <v>99</v>
       </c>
       <c r="R10" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="S10" t="s">
         <v>100</v>
@@ -3763,7 +3767,7 @@
         <v>104</v>
       </c>
       <c r="L11" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="M11" t="s">
         <v>108</v>
@@ -3772,7 +3776,7 @@
         <v>109</v>
       </c>
       <c r="R11" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="S11" t="s">
         <v>110</v>
@@ -3816,7 +3820,7 @@
         <v>114</v>
       </c>
       <c r="L12" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="M12" t="s">
         <v>116</v>
@@ -3825,7 +3829,7 @@
         <v>117</v>
       </c>
       <c r="R12" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="S12" t="s">
         <v>118</v>
@@ -3851,7 +3855,7 @@
         <v>122</v>
       </c>
       <c r="F13" t="s">
-        <v>699</v>
+        <v>870</v>
       </c>
       <c r="G13" t="s">
         <v>123</v>
@@ -3869,7 +3873,7 @@
         <v>122</v>
       </c>
       <c r="L13" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="M13" t="s">
         <v>126</v>
@@ -3878,7 +3882,7 @@
         <v>127</v>
       </c>
       <c r="R13" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="S13" t="s">
         <v>128</v>
@@ -3904,7 +3908,7 @@
         <v>132</v>
       </c>
       <c r="F14" t="s">
-        <v>700</v>
+        <v>869</v>
       </c>
       <c r="G14" t="s">
         <v>133</v>
@@ -3922,7 +3926,7 @@
         <v>132</v>
       </c>
       <c r="L14" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="M14" t="s">
         <v>135</v>
@@ -3931,7 +3935,7 @@
         <v>136</v>
       </c>
       <c r="R14" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="S14" t="s">
         <v>137</v>
@@ -3957,7 +3961,7 @@
         <v>141</v>
       </c>
       <c r="F15" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G15" t="s">
         <v>142</v>
@@ -3966,7 +3970,7 @@
         <v>143</v>
       </c>
       <c r="I15" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="J15" t="s">
         <v>144</v>
@@ -3975,7 +3979,7 @@
         <v>145</v>
       </c>
       <c r="L15" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="M15" t="s">
         <v>146</v>
@@ -3984,7 +3988,7 @@
         <v>147</v>
       </c>
       <c r="R15" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="S15" t="s">
         <v>148</v>
@@ -4010,7 +4014,7 @@
         <v>152</v>
       </c>
       <c r="F16" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G16" t="s">
         <v>153</v>
@@ -4019,7 +4023,7 @@
         <v>154</v>
       </c>
       <c r="I16" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="J16" t="s">
         <v>155</v>
@@ -4028,7 +4032,7 @@
         <v>156</v>
       </c>
       <c r="L16" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="M16" t="s">
         <v>157</v>
@@ -4037,7 +4041,7 @@
         <v>158</v>
       </c>
       <c r="R16" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="S16" t="s">
         <v>159</v>
@@ -4063,7 +4067,7 @@
         <v>163</v>
       </c>
       <c r="F17" t="s">
-        <v>703</v>
+        <v>871</v>
       </c>
       <c r="G17" t="s">
         <v>164</v>
@@ -4072,7 +4076,7 @@
         <v>165</v>
       </c>
       <c r="I17" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="J17" t="s">
         <v>166</v>
@@ -4081,7 +4085,7 @@
         <v>167</v>
       </c>
       <c r="L17" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="M17" t="s">
         <v>168</v>
@@ -4090,7 +4094,7 @@
         <v>169</v>
       </c>
       <c r="R17" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="S17" t="s">
         <v>170</v>
@@ -4116,7 +4120,7 @@
         <v>174</v>
       </c>
       <c r="F18" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G18" t="s">
         <v>175</v>
@@ -4125,7 +4129,7 @@
         <v>176</v>
       </c>
       <c r="I18" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="J18" t="s">
         <v>177</v>
@@ -4134,7 +4138,7 @@
         <v>178</v>
       </c>
       <c r="L18" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="M18" t="s">
         <v>179</v>
@@ -4143,7 +4147,7 @@
         <v>180</v>
       </c>
       <c r="R18" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="S18" t="s">
         <v>181</v>
@@ -4169,7 +4173,7 @@
         <v>185</v>
       </c>
       <c r="F19" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="G19" t="s">
         <v>186</v>
@@ -4178,7 +4182,7 @@
         <v>187</v>
       </c>
       <c r="I19" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="J19" t="s">
         <v>188</v>
@@ -4187,7 +4191,7 @@
         <v>189</v>
       </c>
       <c r="L19" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="M19" t="s">
         <v>190</v>
@@ -4196,7 +4200,7 @@
         <v>191</v>
       </c>
       <c r="R19" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="S19" t="s">
         <v>192</v>
@@ -4222,7 +4226,7 @@
         <v>196</v>
       </c>
       <c r="F20" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="G20" t="s">
         <v>197</v>
@@ -4240,7 +4244,7 @@
         <v>196</v>
       </c>
       <c r="L20" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="M20" t="s">
         <v>199</v>
@@ -4249,7 +4253,7 @@
         <v>200</v>
       </c>
       <c r="R20" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="S20" t="s">
         <v>201</v>
@@ -4275,7 +4279,7 @@
         <v>205</v>
       </c>
       <c r="F21" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="G21" t="s">
         <v>206</v>
@@ -4293,7 +4297,7 @@
         <v>205</v>
       </c>
       <c r="L21" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="M21" t="s">
         <v>208</v>
@@ -4319,7 +4323,7 @@
         <v>212</v>
       </c>
       <c r="F22" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="G22" t="s">
         <v>213</v>
@@ -4337,7 +4341,7 @@
         <v>212</v>
       </c>
       <c r="L22" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="M22" t="s">
         <v>215</v>
@@ -4346,7 +4350,7 @@
         <v>216</v>
       </c>
       <c r="R22" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="S22" t="s">
         <v>217</v>
@@ -4372,7 +4376,7 @@
         <v>221</v>
       </c>
       <c r="F23" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="G23" t="s">
         <v>222</v>
@@ -4390,7 +4394,7 @@
         <v>221</v>
       </c>
       <c r="L23" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="M23" t="s">
         <v>224</v>
@@ -4399,7 +4403,7 @@
         <v>225</v>
       </c>
       <c r="R23" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="S23" t="s">
         <v>226</v>
@@ -4425,7 +4429,7 @@
         <v>230</v>
       </c>
       <c r="F24" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="G24" t="s">
         <v>231</v>
@@ -4443,7 +4447,7 @@
         <v>230</v>
       </c>
       <c r="L24" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="M24" t="s">
         <v>233</v>
@@ -4452,7 +4456,7 @@
         <v>234</v>
       </c>
       <c r="R24" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="S24" t="s">
         <v>235</v>
@@ -4478,7 +4482,7 @@
         <v>239</v>
       </c>
       <c r="F25" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="G25" t="s">
         <v>240</v>
@@ -4496,7 +4500,7 @@
         <v>239</v>
       </c>
       <c r="L25" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="M25" t="s">
         <v>242</v>
@@ -4505,7 +4509,7 @@
         <v>243</v>
       </c>
       <c r="R25" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="S25" t="s">
         <v>244</v>
@@ -4531,7 +4535,7 @@
         <v>248</v>
       </c>
       <c r="F26" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="G26" t="s">
         <v>249</v>
@@ -4549,7 +4553,7 @@
         <v>248</v>
       </c>
       <c r="L26" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="M26" t="s">
         <v>251</v>
@@ -4558,7 +4562,7 @@
         <v>252</v>
       </c>
       <c r="R26" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="S26" t="s">
         <v>253</v>
@@ -4584,7 +4588,7 @@
         <v>257</v>
       </c>
       <c r="F27" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="G27" t="s">
         <v>258</v>
@@ -4593,7 +4597,7 @@
         <v>259</v>
       </c>
       <c r="I27" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="J27" t="s">
         <v>260</v>
@@ -4602,7 +4606,7 @@
         <v>261</v>
       </c>
       <c r="L27" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="M27" t="s">
         <v>262</v>
@@ -4611,7 +4615,7 @@
         <v>263</v>
       </c>
       <c r="R27" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="S27" t="s">
         <v>264</v>
@@ -4637,7 +4641,7 @@
         <v>268</v>
       </c>
       <c r="F28" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="G28" t="s">
         <v>269</v>
@@ -4655,7 +4659,7 @@
         <v>268</v>
       </c>
       <c r="L28" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="M28" t="s">
         <v>271</v>
@@ -4664,7 +4668,7 @@
         <v>272</v>
       </c>
       <c r="R28" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="S28" t="s">
         <v>273</v>
@@ -4690,7 +4694,7 @@
         <v>277</v>
       </c>
       <c r="F29" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="G29" t="s">
         <v>269</v>
@@ -4708,7 +4712,7 @@
         <v>277</v>
       </c>
       <c r="L29" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="M29" t="s">
         <v>278</v>
@@ -4717,7 +4721,7 @@
         <v>279</v>
       </c>
       <c r="R29" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="S29" t="s">
         <v>280</v>
@@ -4743,7 +4747,7 @@
         <v>284</v>
       </c>
       <c r="F30" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="G30" t="s">
         <v>285</v>
@@ -4761,7 +4765,7 @@
         <v>284</v>
       </c>
       <c r="L30" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="M30" t="s">
         <v>288</v>
@@ -4770,7 +4774,7 @@
         <v>289</v>
       </c>
       <c r="R30" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="S30" t="s">
         <v>290</v>
@@ -4796,7 +4800,7 @@
         <v>294</v>
       </c>
       <c r="F31" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="G31" t="s">
         <v>285</v>
@@ -4814,7 +4818,7 @@
         <v>294</v>
       </c>
       <c r="L31" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="M31" t="s">
         <v>296</v>
@@ -4823,7 +4827,7 @@
         <v>297</v>
       </c>
       <c r="R31" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="S31" t="s">
         <v>298</v>
@@ -4849,7 +4853,7 @@
         <v>302</v>
       </c>
       <c r="F32" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="G32" t="s">
         <v>303</v>
@@ -4884,7 +4888,7 @@
         <v>307</v>
       </c>
       <c r="F33" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="G33" t="s">
         <v>308</v>
@@ -4919,7 +4923,7 @@
         <v>312</v>
       </c>
       <c r="F34" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="G34" t="s">
         <v>313</v>
@@ -4928,7 +4932,7 @@
         <v>314</v>
       </c>
       <c r="I34" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="J34" t="s">
         <v>311</v>
@@ -4937,7 +4941,7 @@
         <v>312</v>
       </c>
       <c r="L34" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="M34" t="s">
         <v>315</v>
@@ -4946,7 +4950,7 @@
         <v>316</v>
       </c>
       <c r="R34" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="S34" t="s">
         <v>317</v>
@@ -4972,7 +4976,7 @@
         <v>321</v>
       </c>
       <c r="F35" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="G35" t="s">
         <v>322</v>
@@ -4990,7 +4994,7 @@
         <v>321</v>
       </c>
       <c r="L35" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="M35" t="s">
         <v>325</v>
@@ -4999,7 +5003,7 @@
         <v>326</v>
       </c>
       <c r="R35" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="S35" t="s">
         <v>327</v>
@@ -5025,7 +5029,7 @@
         <v>331</v>
       </c>
       <c r="F36" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="G36" t="s">
         <v>332</v>
@@ -5043,7 +5047,7 @@
         <v>331</v>
       </c>
       <c r="L36" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="M36" t="s">
         <v>334</v>
@@ -5052,7 +5056,7 @@
         <v>335</v>
       </c>
       <c r="R36" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="S36" t="s">
         <v>273</v>
@@ -5078,7 +5082,7 @@
         <v>338</v>
       </c>
       <c r="F37" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="G37" t="s">
         <v>339</v>
@@ -5096,7 +5100,7 @@
         <v>338</v>
       </c>
       <c r="L37" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="M37" t="s">
         <v>341</v>
@@ -5105,7 +5109,7 @@
         <v>342</v>
       </c>
       <c r="R37" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="S37" t="s">
         <v>343</v>
@@ -5131,7 +5135,7 @@
         <v>347</v>
       </c>
       <c r="F38" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G38" t="s">
         <v>348</v>
@@ -5149,7 +5153,7 @@
         <v>347</v>
       </c>
       <c r="L38" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="M38" t="s">
         <v>350</v>
@@ -5175,7 +5179,7 @@
         <v>354</v>
       </c>
       <c r="F39" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G39" t="s">
         <v>355</v>
@@ -5193,7 +5197,7 @@
         <v>354</v>
       </c>
       <c r="L39" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="M39" t="s">
         <v>357</v>
@@ -5202,7 +5206,7 @@
         <v>358</v>
       </c>
       <c r="R39" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="S39" t="s">
         <v>359</v>
@@ -5228,7 +5232,7 @@
         <v>363</v>
       </c>
       <c r="F40" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G40" t="s">
         <v>364</v>
@@ -5246,7 +5250,7 @@
         <v>363</v>
       </c>
       <c r="L40" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="M40" t="s">
         <v>366</v>
@@ -5255,7 +5259,7 @@
         <v>367</v>
       </c>
       <c r="R40" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="S40" t="s">
         <v>359</v>
@@ -5281,7 +5285,7 @@
         <v>370</v>
       </c>
       <c r="F41" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G41" t="s">
         <v>364</v>
@@ -5299,7 +5303,7 @@
         <v>370</v>
       </c>
       <c r="L41" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="M41" t="s">
         <v>366</v>
@@ -5308,7 +5312,7 @@
         <v>367</v>
       </c>
       <c r="R41" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="S41" t="s">
         <v>359</v>
@@ -5334,7 +5338,7 @@
         <v>373</v>
       </c>
       <c r="F42" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="G42" t="s">
         <v>374</v>
@@ -5352,7 +5356,7 @@
         <v>373</v>
       </c>
       <c r="L42" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="M42" t="s">
         <v>376</v>
@@ -5378,7 +5382,7 @@
         <v>380</v>
       </c>
       <c r="F43" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="G43" t="s">
         <v>381</v>
@@ -5396,7 +5400,7 @@
         <v>380</v>
       </c>
       <c r="L43" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="M43" t="s">
         <v>383</v>
@@ -5405,7 +5409,7 @@
         <v>384</v>
       </c>
       <c r="R43" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="S43" t="s">
         <v>385</v>
@@ -5431,7 +5435,7 @@
         <v>389</v>
       </c>
       <c r="F44" t="s">
-        <v>727</v>
+        <v>872</v>
       </c>
       <c r="G44" t="s">
         <v>390</v>
@@ -5449,7 +5453,7 @@
         <v>389</v>
       </c>
       <c r="L44" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="M44" t="s">
         <v>392</v>
@@ -5475,7 +5479,7 @@
         <v>396</v>
       </c>
       <c r="F45" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="G45" t="s">
         <v>397</v>
@@ -5493,7 +5497,7 @@
         <v>396</v>
       </c>
       <c r="L45" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="M45" t="s">
         <v>399</v>
@@ -5519,7 +5523,7 @@
         <v>403</v>
       </c>
       <c r="F46" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="G46" t="s">
         <v>404</v>
@@ -5537,7 +5541,7 @@
         <v>403</v>
       </c>
       <c r="L46" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="M46" t="s">
         <v>406</v>
@@ -5563,7 +5567,7 @@
         <v>410</v>
       </c>
       <c r="F47" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="G47" t="s">
         <v>411</v>
@@ -5581,7 +5585,7 @@
         <v>410</v>
       </c>
       <c r="L47" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="M47" t="s">
         <v>413</v>
@@ -5590,7 +5594,7 @@
         <v>414</v>
       </c>
       <c r="R47" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="S47" t="s">
         <v>415</v>
@@ -5616,7 +5620,7 @@
         <v>419</v>
       </c>
       <c r="F48" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="G48" t="s">
         <v>420</v>
@@ -5634,7 +5638,7 @@
         <v>419</v>
       </c>
       <c r="L48" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="M48" t="s">
         <v>422</v>
@@ -5660,7 +5664,7 @@
         <v>426</v>
       </c>
       <c r="F49" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G49" t="s">
         <v>427</v>
@@ -5669,7 +5673,7 @@
         <v>428</v>
       </c>
       <c r="I49" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="J49" t="s">
         <v>429</v>
@@ -5678,7 +5682,7 @@
         <v>430</v>
       </c>
       <c r="L49" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="M49" t="s">
         <v>431</v>
@@ -5687,7 +5691,7 @@
         <v>432</v>
       </c>
       <c r="R49" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="S49" t="s">
         <v>433</v>
@@ -5713,7 +5717,7 @@
         <v>437</v>
       </c>
       <c r="F50" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G50" t="s">
         <v>438</v>
@@ -5722,7 +5726,7 @@
         <v>439</v>
       </c>
       <c r="I50" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="J50" t="s">
         <v>440</v>
@@ -5731,7 +5735,7 @@
         <v>441</v>
       </c>
       <c r="L50" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="M50" t="s">
         <v>442</v>
@@ -5740,7 +5744,7 @@
         <v>443</v>
       </c>
       <c r="R50" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="S50" t="s">
         <v>444</v>
@@ -5766,7 +5770,7 @@
         <v>448</v>
       </c>
       <c r="F51" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="G51" t="s">
         <v>449</v>
@@ -5784,7 +5788,7 @@
         <v>448</v>
       </c>
       <c r="L51" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="M51" t="s">
         <v>451</v>
@@ -5793,7 +5797,7 @@
         <v>452</v>
       </c>
       <c r="R51" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="S51" t="s">
         <v>453</v>
@@ -5845,7 +5849,7 @@
         <v>460</v>
       </c>
       <c r="F53" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="G53" t="s">
         <v>461</v>
@@ -5863,7 +5867,7 @@
         <v>460</v>
       </c>
       <c r="L53" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="M53" t="s">
         <v>463</v>
@@ -5872,7 +5876,7 @@
         <v>464</v>
       </c>
       <c r="R53" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="S53" t="s">
         <v>465</v>
@@ -5898,7 +5902,7 @@
         <v>469</v>
       </c>
       <c r="F54" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="G54" t="s">
         <v>470</v>
@@ -5907,7 +5911,7 @@
         <v>471</v>
       </c>
       <c r="I54" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="J54" t="s">
         <v>472</v>
@@ -5916,7 +5920,7 @@
         <v>473</v>
       </c>
       <c r="L54" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="M54" t="s">
         <v>474</v>
@@ -5925,7 +5929,7 @@
         <v>475</v>
       </c>
       <c r="R54" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="S54" t="s">
         <v>476</v>
@@ -5951,7 +5955,7 @@
         <v>480</v>
       </c>
       <c r="F55" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="G55" t="s">
         <v>481</v>
@@ -5986,7 +5990,7 @@
         <v>486</v>
       </c>
       <c r="F56" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="G56" t="s">
         <v>487</v>
@@ -6004,7 +6008,7 @@
         <v>486</v>
       </c>
       <c r="L56" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="M56" t="s">
         <v>489</v>
@@ -6013,7 +6017,7 @@
         <v>490</v>
       </c>
       <c r="R56" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="S56" t="s">
         <v>491</v>
@@ -6039,7 +6043,7 @@
         <v>495</v>
       </c>
       <c r="F57" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="G57" t="s">
         <v>496</v>
@@ -6048,7 +6052,7 @@
         <v>497</v>
       </c>
       <c r="I57" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="J57" t="s">
         <v>498</v>
@@ -6057,7 +6061,7 @@
         <v>499</v>
       </c>
       <c r="L57" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="M57" t="s">
         <v>500</v>
@@ -6066,7 +6070,7 @@
         <v>501</v>
       </c>
       <c r="R57" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="S57" t="s">
         <v>502</v>
@@ -6092,7 +6096,7 @@
         <v>506</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="G58" t="s">
         <v>507</v>
@@ -6101,7 +6105,7 @@
         <v>508</v>
       </c>
       <c r="I58" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="J58" t="s">
         <v>509</v>
@@ -6110,7 +6114,7 @@
         <v>510</v>
       </c>
       <c r="L58" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="M58" t="s">
         <v>511</v>
@@ -6119,7 +6123,7 @@
         <v>512</v>
       </c>
       <c r="O58" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="P58" t="s">
         <v>513</v>
@@ -6145,7 +6149,7 @@
         <v>517</v>
       </c>
       <c r="F59" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="G59" t="s">
         <v>518</v>
@@ -6154,7 +6158,7 @@
         <v>519</v>
       </c>
       <c r="I59" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="J59" t="s">
         <v>520</v>
@@ -6180,7 +6184,7 @@
         <v>523</v>
       </c>
       <c r="F60" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="G60" t="s">
         <v>524</v>
@@ -6215,7 +6219,7 @@
         <v>529</v>
       </c>
       <c r="F61" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="G61" t="s">
         <v>530</v>
@@ -6224,7 +6228,7 @@
         <v>531</v>
       </c>
       <c r="I61" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="J61" t="s">
         <v>532</v>
@@ -6250,7 +6254,7 @@
         <v>84</v>
       </c>
       <c r="F62" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="G62" t="s">
         <v>535</v>
@@ -6259,7 +6263,7 @@
         <v>536</v>
       </c>
       <c r="I62" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="J62" t="s">
         <v>537</v>
@@ -6268,7 +6272,7 @@
         <v>538</v>
       </c>
       <c r="L62" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="M62" t="s">
         <v>539</v>
@@ -6277,7 +6281,7 @@
         <v>540</v>
       </c>
       <c r="O62" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="P62" t="s">
         <v>541</v>
@@ -6303,7 +6307,7 @@
         <v>545</v>
       </c>
       <c r="I63" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="J63" t="s">
         <v>546</v>
@@ -6329,7 +6333,7 @@
         <v>550</v>
       </c>
       <c r="I64" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="J64" t="s">
         <v>551</v>
@@ -6355,7 +6359,7 @@
         <v>555</v>
       </c>
       <c r="I65" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="J65" t="s">
         <v>556</v>
@@ -6398,7 +6402,7 @@
         <v>563</v>
       </c>
       <c r="I67" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="J67" t="s">
         <v>564</v>
@@ -6424,7 +6428,7 @@
         <v>545</v>
       </c>
       <c r="I68" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="J68" t="s">
         <v>567</v>
@@ -6450,7 +6454,7 @@
         <v>571</v>
       </c>
       <c r="F69" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="G69" t="s">
         <v>572</v>
@@ -6468,7 +6472,7 @@
         <v>571</v>
       </c>
       <c r="L69" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="M69" t="s">
         <v>574</v>
@@ -6477,7 +6481,7 @@
         <v>575</v>
       </c>
       <c r="R69" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="S69" t="s">
         <v>415</v>
@@ -6503,7 +6507,7 @@
         <v>578</v>
       </c>
       <c r="F70" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="G70" t="s">
         <v>579</v>
@@ -6538,7 +6542,7 @@
         <v>583</v>
       </c>
       <c r="F71" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="G71" t="s">
         <v>584</v>
@@ -6547,7 +6551,7 @@
         <v>585</v>
       </c>
       <c r="L71" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="M71" t="s">
         <v>586</v>
@@ -6556,7 +6560,7 @@
         <v>587</v>
       </c>
       <c r="R71" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="S71" t="s">
         <v>588</v>
@@ -6582,7 +6586,7 @@
         <v>592</v>
       </c>
       <c r="F72" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="G72" t="s">
         <v>593</v>
@@ -6591,7 +6595,7 @@
         <v>594</v>
       </c>
       <c r="L72" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="M72" t="s">
         <v>595</v>
@@ -6600,7 +6604,7 @@
         <v>596</v>
       </c>
       <c r="R72" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="S72" t="s">
         <v>588</v>
@@ -6626,7 +6630,7 @@
         <v>599</v>
       </c>
       <c r="F73" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="G73" t="s">
         <v>600</v>
@@ -6635,7 +6639,7 @@
         <v>601</v>
       </c>
       <c r="L73" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="M73" t="s">
         <v>595</v>
@@ -6644,7 +6648,7 @@
         <v>596</v>
       </c>
       <c r="R73" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="S73" t="s">
         <v>588</v>
